--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27025"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hyu-my.sharepoint.com/personal/brlim_hanyang_ac_kr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\upwork\boramProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A56974C-A6EA-49CD-8F10-06BD05DE1E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60D8433E-B7D2-4618-926D-88ED31981C0E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,135 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>서울</t>
-  </si>
-  <si>
-    <t>부산</t>
-  </si>
-  <si>
-    <t>대구</t>
-  </si>
-  <si>
-    <t>인천</t>
-  </si>
-  <si>
-    <t>광주</t>
-  </si>
-  <si>
-    <t>대전</t>
-  </si>
-  <si>
-    <t>울산</t>
-  </si>
-  <si>
-    <t>세종</t>
-  </si>
-  <si>
-    <t>강원</t>
-  </si>
-  <si>
-    <t>충청북도</t>
-  </si>
-  <si>
-    <t>충청남도</t>
-  </si>
-  <si>
-    <t>전라북도</t>
-  </si>
-  <si>
-    <t>전라남도</t>
-  </si>
-  <si>
-    <t>경상북도</t>
-  </si>
-  <si>
-    <t>경상남도</t>
-  </si>
-  <si>
-    <t>제주</t>
-  </si>
-  <si>
-    <t>경기 수원시</t>
-  </si>
-  <si>
-    <t>경기 용인시</t>
-  </si>
-  <si>
-    <t>경기 고양시</t>
-  </si>
-  <si>
-    <t>경기 성남시</t>
-  </si>
-  <si>
-    <t>경기 화성시</t>
-  </si>
-  <si>
-    <t>경기 부천시</t>
-  </si>
-  <si>
-    <t>경기 남양주시</t>
-  </si>
-  <si>
-    <t>경기 안산시</t>
-  </si>
-  <si>
-    <t>경기 평택시</t>
-  </si>
-  <si>
-    <t>경기 안양시</t>
-  </si>
-  <si>
-    <t>경기 시흥시</t>
-  </si>
-  <si>
-    <t>경기 파주시</t>
-  </si>
-  <si>
-    <t>경기 김포시</t>
-  </si>
-  <si>
-    <t>경기 의정부시</t>
-  </si>
-  <si>
-    <t>경기 광주시</t>
-  </si>
-  <si>
-    <t>경기 하남시</t>
-  </si>
-  <si>
-    <t>경기 광명시</t>
-  </si>
-  <si>
-    <t>경기 군포시</t>
-  </si>
-  <si>
-    <t>경기 양주시</t>
-  </si>
-  <si>
-    <t>경기 오산시</t>
-  </si>
-  <si>
-    <t>경기 이천시</t>
-  </si>
-  <si>
-    <t>경기 안성시</t>
-  </si>
-  <si>
-    <t>경기 구리시</t>
-  </si>
-  <si>
-    <t>경기 의왕시</t>
-  </si>
-  <si>
-    <t>경기 포천시</t>
-  </si>
-  <si>
-    <t>경기 여주시</t>
   </si>
   <si>
     <t>경기 동두천시</t>
@@ -185,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,256 +403,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90D3C2-B405-4E8E-A0A4-9C000D748315}">
-  <dimension ref="A1:A48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A16" sqref="A2:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27025"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hyu-my.sharepoint.com/personal/brlim_hanyang_ac_kr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\upwork\boramProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A56974C-A6EA-49CD-8F10-06BD05DE1E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60D8433E-B7D2-4618-926D-88ED31981C0E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,27 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>서울</t>
-  </si>
-  <si>
-    <t>부산</t>
-  </si>
-  <si>
-    <t>대구</t>
-  </si>
-  <si>
-    <t>인천</t>
-  </si>
-  <si>
-    <t>광주</t>
-  </si>
-  <si>
-    <t>대전</t>
   </si>
   <si>
     <t>울산</t>
@@ -185,8 +166,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,256 +511,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90D3C2-B405-4E8E-A0A4-9C000D748315}">
-  <dimension ref="A1:A48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>울산</t>
   </si>
   <si>
     <t>세종</t>
@@ -512,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,11 +725,6 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>세종</t>
   </si>
   <si>
     <t>강원</t>
@@ -509,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,11 +717,6 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>강원</t>
   </si>
   <si>
     <t>충청북도</t>
@@ -506,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,11 +709,6 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,27 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>충청북도</t>
-  </si>
-  <si>
-    <t>충청남도</t>
-  </si>
-  <si>
-    <t>전라북도</t>
-  </si>
-  <si>
-    <t>전라남도</t>
-  </si>
-  <si>
-    <t>경상북도</t>
-  </si>
-  <si>
-    <t>경상남도</t>
   </si>
   <si>
     <t>제주</t>
@@ -503,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="A7" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,36 +661,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,15 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>제주</t>
-  </si>
-  <si>
-    <t>경기 수원시</t>
   </si>
   <si>
     <t>경기 용인시</t>
@@ -485,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:F7"/>
+      <selection activeCell="A3" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,16 +645,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,15 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>경기 용인시</t>
-  </si>
-  <si>
-    <t>경기 고양시</t>
   </si>
   <si>
     <t>경기 성남시</t>
@@ -479,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:F3"/>
+      <selection activeCell="A3" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,16 +629,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Area_Name</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>경기 가평군</t>
-  </si>
-  <si>
-    <t>경기 연천군</t>
   </si>
 </sst>
 </file>
@@ -473,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,11 +621,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,21 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>경기 성남시</t>
-  </si>
-  <si>
-    <t>경기 화성시</t>
-  </si>
-  <si>
-    <t>경기 부천시</t>
-  </si>
-  <si>
-    <t>경기 남양주시</t>
   </si>
   <si>
     <t>경기 안산시</t>
@@ -470,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,26 +589,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>경기 안산시</t>
   </si>
   <si>
     <t>경기 평택시</t>
@@ -458,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:I5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,11 +581,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,18 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>경기 평택시</t>
-  </si>
-  <si>
-    <t>경기 안양시</t>
-  </si>
-  <si>
-    <t>경기 시흥시</t>
   </si>
   <si>
     <t>경기 파주시</t>
@@ -455,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,21 +557,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,27 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>경기 파주시</t>
-  </si>
-  <si>
-    <t>경기 김포시</t>
-  </si>
-  <si>
-    <t>경기 의정부시</t>
-  </si>
-  <si>
-    <t>경기 광주시</t>
-  </si>
-  <si>
-    <t>경기 하남시</t>
-  </si>
-  <si>
-    <t>경기 광명시</t>
   </si>
   <si>
     <t>경기 군포시</t>
@@ -446,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,36 +509,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,15 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>경기 군포시</t>
-  </si>
-  <si>
-    <t>경기 양주시</t>
   </si>
   <si>
     <t>경기 오산시</t>
@@ -428,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,16 +493,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,21 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>경기 오산시</t>
-  </si>
-  <si>
-    <t>경기 이천시</t>
-  </si>
-  <si>
-    <t>경기 안성시</t>
-  </si>
-  <si>
-    <t>경기 구리시</t>
   </si>
   <si>
     <t>경기 의왕시</t>
@@ -422,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A5" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,26 +461,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,15 +35,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Area_Name</t>
   </si>
   <si>
-    <t>경기 의왕시</t>
-  </si>
-  <si>
-    <t>경기 포천시</t>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>부산</t>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>인천</t>
+  </si>
+  <si>
+    <t>광주</t>
+  </si>
+  <si>
+    <t>대전</t>
+  </si>
+  <si>
+    <t>울산</t>
+  </si>
+  <si>
+    <t>세종</t>
+  </si>
+  <si>
+    <t>강원</t>
+  </si>
+  <si>
+    <t>충청북도</t>
+  </si>
+  <si>
+    <t>충청남도</t>
+  </si>
+  <si>
+    <t>전라북도</t>
+  </si>
+  <si>
+    <t>전라남도</t>
+  </si>
+  <si>
+    <t>경상북도</t>
+  </si>
+  <si>
+    <t>경상남도</t>
+  </si>
+  <si>
+    <t>제주</t>
+  </si>
+  <si>
+    <t>경기 수원시</t>
+  </si>
+  <si>
+    <t>경기 용인시</t>
+  </si>
+  <si>
+    <t>경기 고양시</t>
+  </si>
+  <si>
+    <t>경기 성남시</t>
+  </si>
+  <si>
+    <t>경기 화성시</t>
+  </si>
+  <si>
+    <t>경기 부천시</t>
+  </si>
+  <si>
+    <t>경기 남양주시</t>
+  </si>
+  <si>
+    <t>경기 안산시</t>
+  </si>
+  <si>
+    <t>경기 평택시</t>
+  </si>
+  <si>
+    <t>경기 안양시</t>
+  </si>
+  <si>
+    <t>경기 시흥시</t>
+  </si>
+  <si>
+    <t>경기 파주시</t>
+  </si>
+  <si>
+    <t>경기 김포시</t>
+  </si>
+  <si>
+    <t>경기 의정부시</t>
+  </si>
+  <si>
+    <t>경기 광주시</t>
+  </si>
+  <si>
+    <t>경기 하남시</t>
+  </si>
+  <si>
+    <t>경기 광명시</t>
+  </si>
+  <si>
+    <t>경기 군포시</t>
+  </si>
+  <si>
+    <t>경기 양주시</t>
+  </si>
+  <si>
+    <t>경기 오산시</t>
+  </si>
+  <si>
+    <t>경기 이천시</t>
+  </si>
+  <si>
+    <t>경기 안성시</t>
+  </si>
+  <si>
+    <t>경기 구리시</t>
   </si>
   <si>
     <t>경기 여주시</t>
@@ -59,6 +170,9 @@
   </si>
   <si>
     <t>경기 가평군</t>
+  </si>
+  <si>
+    <t>경기 연천군</t>
   </si>
 </sst>
 </file>
@@ -410,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:D5"/>
+      <selection activeCell="A42" sqref="A41:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +575,196 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,108 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>서울</t>
-  </si>
-  <si>
-    <t>부산</t>
-  </si>
-  <si>
-    <t>대구</t>
-  </si>
-  <si>
-    <t>인천</t>
-  </si>
-  <si>
-    <t>광주</t>
-  </si>
-  <si>
-    <t>대전</t>
-  </si>
-  <si>
-    <t>울산</t>
-  </si>
-  <si>
-    <t>세종</t>
-  </si>
-  <si>
-    <t>강원</t>
-  </si>
-  <si>
-    <t>충청북도</t>
-  </si>
-  <si>
-    <t>충청남도</t>
-  </si>
-  <si>
-    <t>전라북도</t>
-  </si>
-  <si>
-    <t>전라남도</t>
-  </si>
-  <si>
-    <t>경상북도</t>
-  </si>
-  <si>
-    <t>경상남도</t>
-  </si>
-  <si>
-    <t>제주</t>
-  </si>
-  <si>
-    <t>경기 수원시</t>
-  </si>
-  <si>
-    <t>경기 용인시</t>
-  </si>
-  <si>
-    <t>경기 고양시</t>
-  </si>
-  <si>
-    <t>경기 성남시</t>
-  </si>
-  <si>
-    <t>경기 화성시</t>
-  </si>
-  <si>
-    <t>경기 부천시</t>
-  </si>
-  <si>
-    <t>경기 남양주시</t>
-  </si>
-  <si>
-    <t>경기 안산시</t>
-  </si>
-  <si>
-    <t>경기 평택시</t>
-  </si>
-  <si>
-    <t>경기 안양시</t>
-  </si>
-  <si>
-    <t>경기 시흥시</t>
-  </si>
-  <si>
-    <t>경기 파주시</t>
-  </si>
-  <si>
-    <t>경기 김포시</t>
-  </si>
-  <si>
-    <t>경기 의정부시</t>
-  </si>
-  <si>
-    <t>경기 광주시</t>
-  </si>
-  <si>
-    <t>경기 하남시</t>
-  </si>
-  <si>
-    <t>경기 광명시</t>
   </si>
   <si>
     <t>경기 군포시</t>
@@ -524,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A41:D42"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,171 +501,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27025"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\upwork\boramProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hyu-my.sharepoint.com/personal/brlim_hanyang_ac_kr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A56974C-A6EA-49CD-8F10-06BD05DE1E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60D8433E-B7D2-4618-926D-88ED31981C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,11 +36,110 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Area_Name</t>
   </si>
   <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>부산</t>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>인천</t>
+  </si>
+  <si>
+    <t>광주</t>
+  </si>
+  <si>
+    <t>대전</t>
+  </si>
+  <si>
+    <t>울산</t>
+  </si>
+  <si>
+    <t>세종</t>
+  </si>
+  <si>
+    <t>강원</t>
+  </si>
+  <si>
+    <t>충청북도</t>
+  </si>
+  <si>
+    <t>충청남도</t>
+  </si>
+  <si>
+    <t>전라북도</t>
+  </si>
+  <si>
+    <t>전라남도</t>
+  </si>
+  <si>
+    <t>경상북도</t>
+  </si>
+  <si>
+    <t>경상남도</t>
+  </si>
+  <si>
+    <t>제주</t>
+  </si>
+  <si>
+    <t>경기 수원시</t>
+  </si>
+  <si>
+    <t>경기 용인시</t>
+  </si>
+  <si>
+    <t>경기 고양시</t>
+  </si>
+  <si>
+    <t>경기 성남시</t>
+  </si>
+  <si>
+    <t>경기 화성시</t>
+  </si>
+  <si>
+    <t>경기 부천시</t>
+  </si>
+  <si>
+    <t>경기 남양주시</t>
+  </si>
+  <si>
+    <t>경기 안산시</t>
+  </si>
+  <si>
+    <t>경기 평택시</t>
+  </si>
+  <si>
+    <t>경기 안양시</t>
+  </si>
+  <si>
+    <t>경기 시흥시</t>
+  </si>
+  <si>
+    <t>경기 파주시</t>
+  </si>
+  <si>
+    <t>경기 김포시</t>
+  </si>
+  <si>
+    <t>경기 의정부시</t>
+  </si>
+  <si>
+    <t>경기 광주시</t>
+  </si>
+  <si>
+    <t>경기 하남시</t>
+  </si>
+  <si>
+    <t>경기 광명시</t>
+  </si>
+  <si>
     <t>경기 군포시</t>
   </si>
   <si>
@@ -56,6 +156,12 @@
   </si>
   <si>
     <t>경기 구리시</t>
+  </si>
+  <si>
+    <t>경기 의왕시</t>
+  </si>
+  <si>
+    <t>경기 포천시</t>
   </si>
   <si>
     <t>경기 여주시</t>
@@ -79,8 +185,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,81 +530,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90D3C2-B405-4E8E-A0A4-9C000D748315}">
+  <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27025"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hyu-my.sharepoint.com/personal/brlim_hanyang_ac_kr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\upwork\boramProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A56974C-A6EA-49CD-8F10-06BD05DE1E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60D8433E-B7D2-4618-926D-88ED31981C0E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>서울</t>
   </si>
   <si>
     <t>부산</t>
@@ -185,8 +181,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,256 +526,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90D3C2-B405-4E8E-A0A4-9C000D748315}">
-  <dimension ref="A1:A48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,60 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>부산</t>
-  </si>
-  <si>
-    <t>대구</t>
-  </si>
-  <si>
-    <t>인천</t>
-  </si>
-  <si>
-    <t>광주</t>
-  </si>
-  <si>
-    <t>대전</t>
-  </si>
-  <si>
-    <t>울산</t>
-  </si>
-  <si>
-    <t>세종</t>
-  </si>
-  <si>
-    <t>강원</t>
-  </si>
-  <si>
-    <t>충청북도</t>
-  </si>
-  <si>
-    <t>충청남도</t>
-  </si>
-  <si>
-    <t>전라북도</t>
-  </si>
-  <si>
-    <t>전라남도</t>
-  </si>
-  <si>
-    <t>경상북도</t>
-  </si>
-  <si>
-    <t>경상남도</t>
-  </si>
-  <si>
-    <t>제주</t>
-  </si>
-  <si>
-    <t>경기 수원시</t>
-  </si>
-  <si>
-    <t>경기 용인시</t>
   </si>
   <si>
     <t>경기 고양시</t>
@@ -527,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,91 +637,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,15 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>경기 고양시</t>
-  </si>
-  <si>
-    <t>경기 성남시</t>
   </si>
   <si>
     <t>경기 화성시</t>
@@ -476,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D6" activeCellId="1" sqref="A2:C3 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,16 +621,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27025"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\upwork\boramProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hyu-my.sharepoint.com/personal/brlim_hanyang_ac_kr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A56974C-A6EA-49CD-8F10-06BD05DE1E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60D8433E-B7D2-4618-926D-88ED31981C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,9 +36,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Area_Name</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>부산</t>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>인천</t>
+  </si>
+  <si>
+    <t>광주</t>
+  </si>
+  <si>
+    <t>대전</t>
+  </si>
+  <si>
+    <t>울산</t>
+  </si>
+  <si>
+    <t>세종</t>
+  </si>
+  <si>
+    <t>강원</t>
+  </si>
+  <si>
+    <t>충청북도</t>
+  </si>
+  <si>
+    <t>충청남도</t>
+  </si>
+  <si>
+    <t>전라북도</t>
+  </si>
+  <si>
+    <t>전라남도</t>
+  </si>
+  <si>
+    <t>경상북도</t>
+  </si>
+  <si>
+    <t>경상남도</t>
+  </si>
+  <si>
+    <t>제주</t>
+  </si>
+  <si>
+    <t>경기 수원시</t>
+  </si>
+  <si>
+    <t>경기 용인시</t>
+  </si>
+  <si>
+    <t>경기 고양시</t>
+  </si>
+  <si>
+    <t>경기 성남시</t>
   </si>
   <si>
     <t>경기 화성시</t>
@@ -124,8 +185,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,156 +530,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90D3C2-B405-4E8E-A0A4-9C000D748315}">
+  <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" activeCellId="1" sqref="A2:C3 D6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27025"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hyu-my.sharepoint.com/personal/brlim_hanyang_ac_kr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\upwork\boramProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A56974C-A6EA-49CD-8F10-06BD05DE1E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60D8433E-B7D2-4618-926D-88ED31981C0E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>서울</t>
   </si>
   <si>
     <t>부산</t>
@@ -185,8 +181,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,256 +526,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90D3C2-B405-4E8E-A0A4-9C000D748315}">
-  <dimension ref="A1:A48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,63 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>부산</t>
-  </si>
-  <si>
-    <t>대구</t>
-  </si>
-  <si>
-    <t>인천</t>
-  </si>
-  <si>
-    <t>광주</t>
-  </si>
-  <si>
-    <t>대전</t>
-  </si>
-  <si>
-    <t>울산</t>
-  </si>
-  <si>
-    <t>세종</t>
-  </si>
-  <si>
-    <t>강원</t>
-  </si>
-  <si>
-    <t>충청북도</t>
-  </si>
-  <si>
-    <t>충청남도</t>
-  </si>
-  <si>
-    <t>전라북도</t>
-  </si>
-  <si>
-    <t>전라남도</t>
-  </si>
-  <si>
-    <t>경상북도</t>
-  </si>
-  <si>
-    <t>경상남도</t>
-  </si>
-  <si>
-    <t>제주</t>
-  </si>
-  <si>
-    <t>경기 수원시</t>
-  </si>
-  <si>
-    <t>경기 용인시</t>
-  </si>
-  <si>
-    <t>경기 고양시</t>
   </si>
   <si>
     <t>경기 성남시</t>
@@ -527,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A19" sqref="A2:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,96 +629,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,21 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>경기 성남시</t>
-  </si>
-  <si>
-    <t>경기 화성시</t>
-  </si>
-  <si>
-    <t>경기 부천시</t>
-  </si>
-  <si>
-    <t>경기 남양주시</t>
   </si>
   <si>
     <t>경기 안산시</t>
@@ -473,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A2:J19"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,26 +597,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,29 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Area_Name</t>
   </si>
   <si>
-    <t>경기 안산시</t>
-  </si>
-  <si>
-    <t>경기 평택시</t>
-  </si>
-  <si>
-    <t>경기 안양시</t>
-  </si>
-  <si>
-    <t>경기 시흥시</t>
-  </si>
-  <si>
-    <t>경기 파주시</t>
-  </si>
-  <si>
-    <t>경기 김포시</t>
-  </si>
-  <si>
     <t>경기 의정부시</t>
   </si>
   <si>
@@ -110,6 +92,54 @@
   </si>
   <si>
     <t>경기 연천군</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>부산</t>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>인천</t>
+  </si>
+  <si>
+    <t>광주</t>
+  </si>
+  <si>
+    <t>대전</t>
+  </si>
+  <si>
+    <t>울산</t>
+  </si>
+  <si>
+    <t>세종</t>
+  </si>
+  <si>
+    <t>강원</t>
+  </si>
+  <si>
+    <t>충청북도</t>
+  </si>
+  <si>
+    <t>충청남도</t>
+  </si>
+  <si>
+    <t>전라북도</t>
+  </si>
+  <si>
+    <t>전라남도</t>
+  </si>
+  <si>
+    <t>경상북도</t>
+  </si>
+  <si>
+    <t>경상남도</t>
+  </si>
+  <si>
+    <t>제주</t>
   </si>
 </sst>
 </file>
@@ -461,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,6 +627,56 @@
         <v>24</v>
       </c>
     </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -35,15 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>경기 의정부시</t>
-  </si>
-  <si>
-    <t>경기 광주시</t>
   </si>
   <si>
     <t>경기 하남시</t>
@@ -491,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A3" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,16 +661,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\upwork\boramProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\upwork\boramProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222E76D6-58B4-47C8-9722-FB0980D2CA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,52 +20,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>경기 하남시</t>
-  </si>
-  <si>
-    <t>경기 광명시</t>
-  </si>
-  <si>
-    <t>경기 군포시</t>
-  </si>
-  <si>
-    <t>경기 양주시</t>
-  </si>
-  <si>
-    <t>경기 오산시</t>
-  </si>
-  <si>
-    <t>경기 이천시</t>
-  </si>
-  <si>
-    <t>경기 안성시</t>
-  </si>
-  <si>
-    <t>경기 구리시</t>
-  </si>
-  <si>
-    <t>경기 의왕시</t>
   </si>
   <si>
     <t>경기 포천시</t>
@@ -139,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,181 +447,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:D3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\upwork\boramProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222E76D6-58B4-47C8-9722-FB0980D2CA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E50D32E-9478-423D-A596-67AC74145B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,33 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>경기 포천시</t>
-  </si>
-  <si>
-    <t>경기 여주시</t>
-  </si>
-  <si>
-    <t>경기 동두천시</t>
-  </si>
-  <si>
-    <t>경기 과천시</t>
-  </si>
-  <si>
-    <t>경기 양평군</t>
-  </si>
-  <si>
-    <t>경기 가평군</t>
-  </si>
-  <si>
-    <t>경기 연천군</t>
-  </si>
-  <si>
-    <t>서울</t>
   </si>
   <si>
     <t>부산</t>
@@ -448,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,46 +515,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\upwork\boramProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\upwork\cannabisScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E50D32E-9478-423D-A596-67AC74145B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,17 +19,28 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Area_Name</t>
   </si>
   <si>
-    <t>부산</t>
+    <t>서울</t>
   </si>
   <si>
     <t>대구</t>
@@ -73,12 +83,105 @@
   </si>
   <si>
     <t>제주</t>
+  </si>
+  <si>
+    <t>경기 수원시</t>
+  </si>
+  <si>
+    <t>경기 용인시</t>
+  </si>
+  <si>
+    <t>경기 고양시</t>
+  </si>
+  <si>
+    <t>경기 성남시</t>
+  </si>
+  <si>
+    <t>경기 화성시</t>
+  </si>
+  <si>
+    <t>경기 부천시</t>
+  </si>
+  <si>
+    <t>경기 남양주시</t>
+  </si>
+  <si>
+    <t>경기 안산시</t>
+  </si>
+  <si>
+    <t>경기 평택시</t>
+  </si>
+  <si>
+    <t>경기 안양시</t>
+  </si>
+  <si>
+    <t>경기 시흥시</t>
+  </si>
+  <si>
+    <t>경기 파주시</t>
+  </si>
+  <si>
+    <t>경기 김포시</t>
+  </si>
+  <si>
+    <t>경기 의정부시</t>
+  </si>
+  <si>
+    <t>경기 광주시</t>
+  </si>
+  <si>
+    <t>경기 하남시</t>
+  </si>
+  <si>
+    <t>경기 광명시</t>
+  </si>
+  <si>
+    <t>경기 군포시</t>
+  </si>
+  <si>
+    <t>경기 양주시</t>
+  </si>
+  <si>
+    <t>경기 오산시</t>
+  </si>
+  <si>
+    <t>경기 이천시</t>
+  </si>
+  <si>
+    <t>경기 안성시</t>
+  </si>
+  <si>
+    <t>경기 구리시</t>
+  </si>
+  <si>
+    <t>경기 의왕시</t>
+  </si>
+  <si>
+    <t>경기 포천시</t>
+  </si>
+  <si>
+    <t>경기 여주시</t>
+  </si>
+  <si>
+    <t>경기 동두천시</t>
+  </si>
+  <si>
+    <t>경기 과천시</t>
+  </si>
+  <si>
+    <t>경기 양평군</t>
+  </si>
+  <si>
+    <t>경기 가평군</t>
+  </si>
+  <si>
+    <t>경기 연천군</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,96 +526,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A2:H9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\upwork\cannabisScraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\upwork\boramProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>서울</t>
   </si>
   <si>
     <t>대구</t>
@@ -527,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,11 +765,6 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -1,44 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\upwork\boramProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E50D32E-9478-423D-A596-67AC74145B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F36FE84-B0CA-4A3B-A227-132738F37C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60D8433E-B7D2-4618-926D-88ED31981C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Area_Name</t>
   </si>
   <si>
-    <t>부산</t>
-  </si>
-  <si>
-    <t>대구</t>
-  </si>
-  <si>
-    <t>인천</t>
-  </si>
-  <si>
     <t>광주</t>
   </si>
   <si>
@@ -73,6 +75,99 @@
   </si>
   <si>
     <t>제주</t>
+  </si>
+  <si>
+    <t>경기 수원시</t>
+  </si>
+  <si>
+    <t>경기 용인시</t>
+  </si>
+  <si>
+    <t>경기 고양시</t>
+  </si>
+  <si>
+    <t>경기 성남시</t>
+  </si>
+  <si>
+    <t>경기 화성시</t>
+  </si>
+  <si>
+    <t>경기 부천시</t>
+  </si>
+  <si>
+    <t>경기 남양주시</t>
+  </si>
+  <si>
+    <t>경기 안산시</t>
+  </si>
+  <si>
+    <t>경기 평택시</t>
+  </si>
+  <si>
+    <t>경기 안양시</t>
+  </si>
+  <si>
+    <t>경기 시흥시</t>
+  </si>
+  <si>
+    <t>경기 파주시</t>
+  </si>
+  <si>
+    <t>경기 김포시</t>
+  </si>
+  <si>
+    <t>경기 의정부시</t>
+  </si>
+  <si>
+    <t>경기 광주시</t>
+  </si>
+  <si>
+    <t>경기 하남시</t>
+  </si>
+  <si>
+    <t>경기 광명시</t>
+  </si>
+  <si>
+    <t>경기 군포시</t>
+  </si>
+  <si>
+    <t>경기 양주시</t>
+  </si>
+  <si>
+    <t>경기 오산시</t>
+  </si>
+  <si>
+    <t>경기 이천시</t>
+  </si>
+  <si>
+    <t>경기 안성시</t>
+  </si>
+  <si>
+    <t>경기 구리시</t>
+  </si>
+  <si>
+    <t>경기 의왕시</t>
+  </si>
+  <si>
+    <t>경기 포천시</t>
+  </si>
+  <si>
+    <t>경기 여주시</t>
+  </si>
+  <si>
+    <t>경기 동두천시</t>
+  </si>
+  <si>
+    <t>경기 과천시</t>
+  </si>
+  <si>
+    <t>경기 양평군</t>
+  </si>
+  <si>
+    <t>경기 가평군</t>
+  </si>
+  <si>
+    <t>경기 연천군</t>
   </si>
 </sst>
 </file>
@@ -423,11 +518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90D3C2-B405-4E8E-A0A4-9C000D748315}">
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A2:H9"/>
+      <selection activeCell="A5" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,6 +610,146 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\upwork\boramProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F36FE84-B0CA-4A3B-A227-132738F37C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CE715B-99CD-4B6D-B17B-474417C5092D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60D8433E-B7D2-4618-926D-88ED31981C0E}"/>
+    <workbookView xWindow="4416" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{60D8433E-B7D2-4618-926D-88ED31981C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>광주</t>
   </si>
   <si>
     <t>대전</t>
@@ -519,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90D3C2-B405-4E8E-A0A4-9C000D748315}">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:D5"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,11 +742,6 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Area_Name_for_Franchise.xlsx
+++ b/Area_Name_for_Franchise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\upwork\boramProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CE715B-99CD-4B6D-B17B-474417C5092D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3FB30E-5082-446A-8FB4-B8F9CA98B552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4416" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{60D8433E-B7D2-4618-926D-88ED31981C0E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60D8433E-B7D2-4618-926D-88ED31981C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Area_Name</t>
-  </si>
-  <si>
-    <t>대전</t>
-  </si>
-  <si>
-    <t>울산</t>
   </si>
   <si>
     <t>세종</t>
@@ -516,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90D3C2-B405-4E8E-A0A4-9C000D748315}">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,16 +726,6 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
